--- a/SimpleManuals/Github/Commands to propagate changes through forks.xlsx
+++ b/SimpleManuals/Github/Commands to propagate changes through forks.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\18-09-19 Document structure\personal\Programming\git\moving repos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\18-09-19 Document structure\personal\Programming\git\PublicCodeLibrary\SimpleManuals\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A02E763-7E95-4103-AE5E-14F11D93E93C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE9F6E0-7694-4AE3-89C0-07D560E5D9E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{B302EE08-9C41-4CE1-B4C6-0EECED2ABB79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{B302EE08-9C41-4CE1-B4C6-0EECED2ABB79}"/>
   </bookViews>
   <sheets>
     <sheet name="commands" sheetId="1" r:id="rId1"/>
+    <sheet name="Store old configs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="68">
   <si>
     <t>Command 2 Push all, commit message:</t>
   </si>
@@ -236,7 +237,28 @@
     <t>Copy repo to other repo in same git account:(+propagate changes)</t>
   </si>
   <si>
-    <t>(first create the target repo in github, but don't clone. Then just change the orange cells.</t>
+    <t>https://github.com/HiveMinds-EU/AE4890-11-Planetary-Sciences-I.git</t>
+  </si>
+  <si>
+    <t>E:\18-09-19 Document structure\business\Study\Master\Space\p2\git\hiveminds\Planet</t>
+  </si>
+  <si>
+    <t>Old configurations:</t>
+  </si>
+  <si>
+    <t>pub_temp_planet</t>
+  </si>
+  <si>
+    <t>E:\18-09-19 Document structure\business\Study\Master\Space\p2\git\hiveminds\misgeo</t>
+  </si>
+  <si>
+    <t>https://github.com/HiveMinds-EU/AE4878-Mission-Geometry-and-Orbit-Design.git</t>
+  </si>
+  <si>
+    <t>pub_temp_misgeo</t>
+  </si>
+  <si>
+    <t>(first create the target repo in github (WITHOUT ANYTHING, SO NO LICENCE), but don't clone. Then just change the orange cells.</t>
   </si>
 </sst>
 </file>
@@ -301,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -309,6 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -626,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C058B81-CE40-4AB0-9762-75E751DBA6DD}">
   <dimension ref="A1:AW63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +665,7 @@
         <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="V1" t="s">
         <v>0</v>
@@ -687,7 +710,7 @@
         <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="V4" t="s">
         <v>10</v>
@@ -722,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -747,52 +770,39 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B8" s="4" t="str">
         <f>LEFT(RIGHT(B5,LEN(B5)-FIND("|",SUBSTITUTE(B5,"/","|",     LEN(B5)-LEN(SUBSTITUTE(B5,"/",""))))),LEN(RIGHT(B5,LEN(B5)-FIND("|",SUBSTITUTE(B5,"/","|",     LEN(B5)-LEN(SUBSTITUTE(B5,"/",""))))))-4)</f>
         <v>CoursePlanningTemplate</v>
       </c>
-      <c r="C7" s="4" t="e">
-        <f t="shared" ref="C7:E7" si="0">LEFT(RIGHT(C5,LEN(C5)-FIND("|",SUBSTITUTE(C5,"/","|",     LEN(C5)-LEN(SUBSTITUTE(C5,"/",""))))),LEN(RIGHT(C5,LEN(C5)-FIND("|",SUBSTITUTE(C5,"/","|",     LEN(C5)-LEN(SUBSTITUTE(C5,"/",""))))))-4)</f>
+      <c r="C8" s="4" t="e">
+        <f>LEFT(RIGHT(C5,LEN(C5)-FIND("|",SUBSTITUTE(C5,"/","|",     LEN(C5)-LEN(SUBSTITUTE(C5,"/",""))))),LEN(RIGHT(C5,LEN(C5)-FIND("|",SUBSTITUTE(C5,"/","|",     LEN(C5)-LEN(SUBSTITUTE(C5,"/",""))))))-4)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D7" s="4" t="e">
-        <f t="shared" si="0"/>
+      <c r="D8" s="4" t="e">
+        <f>LEFT(RIGHT(D5,LEN(D5)-FIND("|",SUBSTITUTE(D5,"/","|",     LEN(D5)-LEN(SUBSTITUTE(D5,"/",""))))),LEN(RIGHT(D5,LEN(D5)-FIND("|",SUBSTITUTE(D5,"/","|",     LEN(D5)-LEN(SUBSTITUTE(D5,"/",""))))))-4)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <f>LEFT(RIGHT(B6,LEN(B6)-FIND("|",SUBSTITUTE(B6,"/","|",     LEN(B6)-LEN(SUBSTITUTE(B6,"/",""))))),LEN(RIGHT(B6,LEN(B6)-FIND("|",SUBSTITUTE(B6,"/","|",     LEN(B6)-LEN(SUBSTITUTE(B6,"/",""))))))-4)</f>
-        <v>WM0324LR-Ethics-and-Engineering-for-Aerospace-Engineering</v>
-      </c>
-      <c r="C8" s="4" t="e">
-        <f t="shared" ref="C8:E8" si="1">LEFT(RIGHT(C6,LEN(C6)-FIND("|",SUBSTITUTE(C6,"/","|",     LEN(C6)-LEN(SUBSTITUTE(C6,"/",""))))),LEN(RIGHT(C6,LEN(C6)-FIND("|",SUBSTITUTE(C6,"/","|",     LEN(C6)-LEN(SUBSTITUTE(C6,"/",""))))))-4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D8" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="E8" s="4" t="e">
-        <f t="shared" si="1"/>
+        <f>LEFT(RIGHT(E5,LEN(E5)-FIND("|",SUBSTITUTE(E5,"/","|",     LEN(E5)-LEN(SUBSTITUTE(E5,"/",""))))),LEN(RIGHT(E5,LEN(E5)-FIND("|",SUBSTITUTE(E5,"/","|",     LEN(E5)-LEN(SUBSTITUTE(E5,"/",""))))))-4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="V8" t="str">
@@ -812,10 +822,23 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f>LEFT(RIGHT(B6,LEN(B6)-FIND("|",SUBSTITUTE(B6,"/","|",     LEN(B6)-LEN(SUBSTITUTE(B6,"/",""))))),LEN(RIGHT(B6,LEN(B6)-FIND("|",SUBSTITUTE(B6,"/","|",     LEN(B6)-LEN(SUBSTITUTE(B6,"/",""))))))-4)</f>
+        <v>AE4878-Mission-Geometry-and-Orbit-Design</v>
+      </c>
+      <c r="C9" s="4" t="e">
+        <f>LEFT(RIGHT(C6,LEN(C6)-FIND("|",SUBSTITUTE(C6,"/","|",     LEN(C6)-LEN(SUBSTITUTE(C6,"/",""))))),LEN(RIGHT(C6,LEN(C6)-FIND("|",SUBSTITUTE(C6,"/","|",     LEN(C6)-LEN(SUBSTITUTE(C6,"/",""))))))-4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="4" t="e">
+        <f>LEFT(RIGHT(D6,LEN(D6)-FIND("|",SUBSTITUTE(D6,"/","|",     LEN(D6)-LEN(SUBSTITUTE(D6,"/",""))))),LEN(RIGHT(D6,LEN(D6)-FIND("|",SUBSTITUTE(D6,"/","|",     LEN(D6)-LEN(SUBSTITUTE(D6,"/",""))))))-4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" s="4" t="e">
+        <f>LEFT(RIGHT(E6,LEN(E6)-FIND("|",SUBSTITUTE(E6,"/","|",     LEN(E6)-LEN(SUBSTITUTE(E6,"/",""))))),LEN(RIGHT(E6,LEN(E6)-FIND("|",SUBSTITUTE(E6,"/","|",     LEN(E6)-LEN(SUBSTITUTE(E6,"/",""))))))-4)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="V9" t="s">
         <v>29</v>
@@ -831,6 +854,7 @@
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
       <c r="AC10" t="s">
         <v>19</v>
       </c>
@@ -894,6 +918,15 @@
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="V14" t="s">
         <v>17</v>
       </c>
@@ -901,7 +934,7 @@
         <v>17</v>
       </c>
       <c r="AO14" t="str">
-        <f t="shared" ref="AO14:AO21" si="2">CONCATENATE("git checkout ",AN4)</f>
+        <f t="shared" ref="AO14:AO21" si="0">CONCATENATE("git checkout ",AN4)</f>
         <v>git checkout 2009-06-18</v>
       </c>
       <c r="AP14" t="s">
@@ -923,18 +956,18 @@
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="str">
         <f>CONCATENATE("cd ",B4)</f>
-        <v>cd E:\18-09-19 Document structure\business\Study\Master\Space\p2\git\hiveminds\ethics</v>
-      </c>
-      <c r="C15" t="str">
-        <f>CONCATENATE("cd ",C4)</f>
+        <v>cd E:\18-09-19 Document structure\business\Study\Master\Space\p2\git\hiveminds\misgeo</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f t="shared" ref="C15:E15" si="1">CONCATENATE("cd ",C4)</f>
         <v xml:space="preserve">cd </v>
       </c>
-      <c r="D15" t="str">
-        <f>CONCATENATE("cd ",D4)</f>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">cd </v>
       </c>
-      <c r="E15" t="str">
-        <f>CONCATENATE("cd ",E4)</f>
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">cd </v>
       </c>
       <c r="V15" t="s">
@@ -944,7 +977,7 @@
         <v>23</v>
       </c>
       <c r="AO15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>git checkout 2010-06-28</v>
       </c>
       <c r="AP15" t="s">
@@ -968,16 +1001,16 @@
         <f>CONCATENATE("git clone ",B5)</f>
         <v>git clone https://github.com/a-t-0/CoursePlanningTemplate.git</v>
       </c>
-      <c r="C16" t="str">
-        <f>CONCATENATE("git clone ",C5)</f>
+      <c r="C16" s="4" t="str">
+        <f t="shared" ref="C16:E16" si="2">CONCATENATE("git clone ",C5)</f>
         <v xml:space="preserve">git clone </v>
       </c>
-      <c r="D16" t="str">
-        <f>CONCATENATE("git clone ",D5)</f>
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">git clone </v>
       </c>
-      <c r="E16" t="str">
-        <f>CONCATENATE("git clone ",E5)</f>
+      <c r="E16" s="4" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">git clone </v>
       </c>
       <c r="V16" t="str">
@@ -989,7 +1022,7 @@
         <v>git commit -m"Included instructions to install MikTex or use Overleaf"</v>
       </c>
       <c r="AO16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>git checkout 2014-10-28</v>
       </c>
       <c r="AP16" t="s">
@@ -1010,19 +1043,19 @@
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="str">
-        <f>CONCATENATE("cd ",B7)</f>
+        <f>CONCATENATE("cd ",B8)</f>
         <v>cd CoursePlanningTemplate</v>
       </c>
-      <c r="C17" t="e">
-        <f>CONCATENATE("cd ",C7)</f>
+      <c r="C17" s="4" t="e">
+        <f t="shared" ref="C17:E17" si="3">CONCATENATE("cd ",C8)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D17" t="e">
-        <f>CONCATENATE("cd ",D7)</f>
+      <c r="D17" s="4" t="e">
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E17" t="e">
-        <f>CONCATENATE("cd ",E7)</f>
+      <c r="E17" s="4" t="e">
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="V17" t="s">
@@ -1032,7 +1065,7 @@
         <v>29</v>
       </c>
       <c r="AO17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>git checkout 2015-10-27</v>
       </c>
       <c r="AP17" t="s">
@@ -1054,22 +1087,22 @@
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="str">
         <f>CONCATENATE("git remote set-url origin ",B6)</f>
-        <v>git remote set-url origin https://github.com/HiveMinds-EU/WM0324LR-Ethics-and-Engineering-for-Aerospace-Engineering.git</v>
-      </c>
-      <c r="C18" t="str">
-        <f>CONCATENATE("git remote set-url origin ",C6)</f>
+        <v>git remote set-url origin https://github.com/HiveMinds-EU/AE4878-Mission-Geometry-and-Orbit-Design.git</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f t="shared" ref="C18:E18" si="4">CONCATENATE("git remote set-url origin ",C6)</f>
         <v xml:space="preserve">git remote set-url origin </v>
       </c>
-      <c r="D18" t="str">
-        <f>CONCATENATE("git remote set-url origin ",D6)</f>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">git remote set-url origin </v>
       </c>
-      <c r="E18" t="str">
-        <f>CONCATENATE("git remote set-url origin ",E6)</f>
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">git remote set-url origin </v>
       </c>
       <c r="AO18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>git checkout 2016-10-31</v>
       </c>
       <c r="AP18" t="s">
@@ -1092,13 +1125,13 @@
       <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="V19" t="s">
@@ -1108,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="AO19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>git checkout 2017-10-30</v>
       </c>
       <c r="AP19" t="s">
@@ -1129,19 +1162,19 @@
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="str">
-        <f>CONCATENATE("git remote add ",B9," ",B5)</f>
-        <v>git remote add pub_temp_eth https://github.com/a-t-0/CoursePlanningTemplate.git</v>
-      </c>
-      <c r="C20" t="str">
-        <f>CONCATENATE("git remote add ",C9," ",C5)</f>
+        <f>CONCATENATE("git remote add ",B7," ",B5)</f>
+        <v>git remote add pub_temp_misgeo https://github.com/a-t-0/CoursePlanningTemplate.git</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f t="shared" ref="C20:E20" si="5">CONCATENATE("git remote add ",C7," ",C5)</f>
         <v xml:space="preserve">git remote add  </v>
       </c>
-      <c r="D20" t="str">
-        <f>CONCATENATE("git remote add ",D9," ",D5)</f>
+      <c r="D20" s="4" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">git remote add  </v>
       </c>
-      <c r="E20" t="str">
-        <f>CONCATENATE("git remote add ",E9," ",E5)</f>
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">git remote add  </v>
       </c>
       <c r="V20" t="s">
@@ -1151,7 +1184,7 @@
         <v>47</v>
       </c>
       <c r="AO20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>git checkout SampleExam</v>
       </c>
       <c r="AP20" t="s">
@@ -1172,19 +1205,19 @@
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="str">
-        <f>CONCATENATE("git fetch ",B9)</f>
-        <v>git fetch pub_temp_eth</v>
-      </c>
-      <c r="C21" t="str">
-        <f>CONCATENATE("git fetch ",C9)</f>
+        <f>CONCATENATE("git fetch ",B7)</f>
+        <v>git fetch pub_temp_misgeo</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f t="shared" ref="C21:E21" si="6">CONCATENATE("git fetch ",C7)</f>
         <v xml:space="preserve">git fetch </v>
       </c>
-      <c r="D21" t="str">
-        <f>CONCATENATE("git fetch ",D9)</f>
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">git fetch </v>
       </c>
-      <c r="E21" t="str">
-        <f>CONCATENATE("git fetch ",E9)</f>
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">git fetch </v>
       </c>
       <c r="V21" t="s">
@@ -1194,7 +1227,7 @@
         <v>14</v>
       </c>
       <c r="AO21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>git checkout Technical Latex Examples</v>
       </c>
       <c r="AP21" t="s">
@@ -1215,19 +1248,19 @@
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="str">
-        <f>CONCATENATE("git merge ",B9,"/master")</f>
-        <v>git merge pub_temp_eth/master</v>
-      </c>
-      <c r="C22" t="str">
-        <f>CONCATENATE("git merge ",C9,"/master")</f>
+        <f>CONCATENATE("git merge ",B7,"/master")</f>
+        <v>git merge pub_temp_misgeo/master</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f t="shared" ref="C22:E22" si="7">CONCATENATE("git merge ",C7,"/master")</f>
         <v>git merge /master</v>
       </c>
-      <c r="D22" t="str">
-        <f>CONCATENATE("git merge ",D9,"/master")</f>
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="7"/>
         <v>git merge /master</v>
       </c>
-      <c r="E22" t="str">
-        <f>CONCATENATE("git merge ",E9,"/master")</f>
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="7"/>
         <v>git merge /master</v>
       </c>
       <c r="V22" t="s">
@@ -1241,13 +1274,13 @@
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="V23" t="s">
@@ -1261,13 +1294,13 @@
       <c r="B24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="V24" t="str">
@@ -1348,13 +1381,13 @@
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="AN26" t="s">
@@ -1391,18 +1424,18 @@
       </c>
       <c r="B27" s="4" t="str">
         <f>CONCATENATE("cd ",B4,"/",B8)</f>
-        <v>cd E:\18-09-19 Document structure\business\Study\Master\Space\p2\git\hiveminds\ethics/WM0324LR-Ethics-and-Engineering-for-Aerospace-Engineering</v>
-      </c>
-      <c r="C27" t="e">
-        <f>CONCATENATE("cd ",C4,"/",C8)</f>
+        <v>cd E:\18-09-19 Document structure\business\Study\Master\Space\p2\git\hiveminds\misgeo/CoursePlanningTemplate</v>
+      </c>
+      <c r="C27" s="4" t="e">
+        <f t="shared" ref="C27:E27" si="8">CONCATENATE("cd ",C4,"/",C8)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D27" t="e">
-        <f>CONCATENATE("cd ",D4,"/",D8)</f>
+      <c r="D27" s="4" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E27" t="e">
-        <f>CONCATENATE("cd ",E4,"/",E8)</f>
+      <c r="E27" s="4" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="V27" t="s">
@@ -1444,19 +1477,19 @@
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="str">
-        <f>CONCATENATE("git fetch ",B9)</f>
-        <v>git fetch pub_temp_eth</v>
-      </c>
-      <c r="C28" t="str">
-        <f>CONCATENATE("git fetch ",C9)</f>
+        <f>CONCATENATE("git fetch ",B7)</f>
+        <v>git fetch pub_temp_misgeo</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f t="shared" ref="C28:E28" si="9">CONCATENATE("git fetch ",C7)</f>
         <v xml:space="preserve">git fetch </v>
       </c>
-      <c r="D28" t="str">
-        <f>CONCATENATE("git fetch ",D9)</f>
+      <c r="D28" s="4" t="str">
+        <f t="shared" si="9"/>
         <v xml:space="preserve">git fetch </v>
       </c>
-      <c r="E28" t="str">
-        <f>CONCATENATE("git fetch ",E9)</f>
+      <c r="E28" s="4" t="str">
+        <f t="shared" si="9"/>
         <v xml:space="preserve">git fetch </v>
       </c>
       <c r="V28" t="s">
@@ -1468,19 +1501,19 @@
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="str">
-        <f>CONCATENATE("git merge ",B9,"/master")</f>
-        <v>git merge pub_temp_eth/master</v>
-      </c>
-      <c r="C29" t="str">
-        <f>CONCATENATE("git merge ",C9,"/master")</f>
+        <f>CONCATENATE("git merge ",B7,"/master")</f>
+        <v>git merge pub_temp_misgeo/master</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f t="shared" ref="C29:E29" si="10">CONCATENATE("git merge ",C7,"/master")</f>
         <v>git merge /master</v>
       </c>
-      <c r="D29" t="str">
-        <f>CONCATENATE("git merge ",D9,"/master")</f>
+      <c r="D29" s="4" t="str">
+        <f t="shared" si="10"/>
         <v>git merge /master</v>
       </c>
-      <c r="E29" t="str">
-        <f>CONCATENATE("git merge ",E9,"/master")</f>
+      <c r="E29" s="4" t="str">
+        <f t="shared" si="10"/>
         <v>git merge /master</v>
       </c>
       <c r="V29" t="s">
@@ -1494,13 +1527,13 @@
       <c r="B30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="V30" t="s">
@@ -1517,13 +1550,13 @@
       <c r="B31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="V31" t="s">
@@ -1699,4 +1732,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F05594-EFCB-4330-8C27-312A8F03010E}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SimpleManuals/Github/Commands to propagate changes through forks.xlsx
+++ b/SimpleManuals/Github/Commands to propagate changes through forks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\18-09-19 Document structure\personal\Programming\git\PublicCodeLibrary\SimpleManuals\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE9F6E0-7694-4AE3-89C0-07D560E5D9E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBA3356-AA68-40AD-86CC-A33B66772B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{B302EE08-9C41-4CE1-B4C6-0EECED2ABB79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{B302EE08-9C41-4CE1-B4C6-0EECED2ABB79}"/>
   </bookViews>
   <sheets>
     <sheet name="commands" sheetId="1" r:id="rId1"/>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C058B81-CE40-4AB0-9762-75E751DBA6DD}">
   <dimension ref="A1:AW63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +710,7 @@
         <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="V4" t="s">
         <v>10</v>
@@ -745,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -773,7 +773,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="V7" t="s">
         <v>23</v>
@@ -790,19 +790,19 @@
         <v>22</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f>LEFT(RIGHT(B5,LEN(B5)-FIND("|",SUBSTITUTE(B5,"/","|",     LEN(B5)-LEN(SUBSTITUTE(B5,"/",""))))),LEN(RIGHT(B5,LEN(B5)-FIND("|",SUBSTITUTE(B5,"/","|",     LEN(B5)-LEN(SUBSTITUTE(B5,"/",""))))))-4)</f>
+        <f t="shared" ref="B8:E9" si="0">LEFT(RIGHT(B5,LEN(B5)-FIND("|",SUBSTITUTE(B5,"/","|",     LEN(B5)-LEN(SUBSTITUTE(B5,"/",""))))),LEN(RIGHT(B5,LEN(B5)-FIND("|",SUBSTITUTE(B5,"/","|",     LEN(B5)-LEN(SUBSTITUTE(B5,"/",""))))))-4)</f>
         <v>CoursePlanningTemplate</v>
       </c>
       <c r="C8" s="4" t="e">
-        <f>LEFT(RIGHT(C5,LEN(C5)-FIND("|",SUBSTITUTE(C5,"/","|",     LEN(C5)-LEN(SUBSTITUTE(C5,"/",""))))),LEN(RIGHT(C5,LEN(C5)-FIND("|",SUBSTITUTE(C5,"/","|",     LEN(C5)-LEN(SUBSTITUTE(C5,"/",""))))))-4)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="D8" s="4" t="e">
-        <f>LEFT(RIGHT(D5,LEN(D5)-FIND("|",SUBSTITUTE(D5,"/","|",     LEN(D5)-LEN(SUBSTITUTE(D5,"/",""))))),LEN(RIGHT(D5,LEN(D5)-FIND("|",SUBSTITUTE(D5,"/","|",     LEN(D5)-LEN(SUBSTITUTE(D5,"/",""))))))-4)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E8" s="4" t="e">
-        <f>LEFT(RIGHT(E5,LEN(E5)-FIND("|",SUBSTITUTE(E5,"/","|",     LEN(E5)-LEN(SUBSTITUTE(E5,"/",""))))),LEN(RIGHT(E5,LEN(E5)-FIND("|",SUBSTITUTE(E5,"/","|",     LEN(E5)-LEN(SUBSTITUTE(E5,"/",""))))))-4)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="V8" t="str">
@@ -825,19 +825,19 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f>LEFT(RIGHT(B6,LEN(B6)-FIND("|",SUBSTITUTE(B6,"/","|",     LEN(B6)-LEN(SUBSTITUTE(B6,"/",""))))),LEN(RIGHT(B6,LEN(B6)-FIND("|",SUBSTITUTE(B6,"/","|",     LEN(B6)-LEN(SUBSTITUTE(B6,"/",""))))))-4)</f>
-        <v>AE4878-Mission-Geometry-and-Orbit-Design</v>
+        <f t="shared" si="0"/>
+        <v>WM0324LR-Ethics-and-Engineering-for-Aerospace-Engineering</v>
       </c>
       <c r="C9" s="4" t="e">
-        <f>LEFT(RIGHT(C6,LEN(C6)-FIND("|",SUBSTITUTE(C6,"/","|",     LEN(C6)-LEN(SUBSTITUTE(C6,"/",""))))),LEN(RIGHT(C6,LEN(C6)-FIND("|",SUBSTITUTE(C6,"/","|",     LEN(C6)-LEN(SUBSTITUTE(C6,"/",""))))))-4)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="D9" s="4" t="e">
-        <f>LEFT(RIGHT(D6,LEN(D6)-FIND("|",SUBSTITUTE(D6,"/","|",     LEN(D6)-LEN(SUBSTITUTE(D6,"/",""))))),LEN(RIGHT(D6,LEN(D6)-FIND("|",SUBSTITUTE(D6,"/","|",     LEN(D6)-LEN(SUBSTITUTE(D6,"/",""))))))-4)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E9" s="4" t="e">
-        <f>LEFT(RIGHT(E6,LEN(E6)-FIND("|",SUBSTITUTE(E6,"/","|",     LEN(E6)-LEN(SUBSTITUTE(E6,"/",""))))),LEN(RIGHT(E6,LEN(E6)-FIND("|",SUBSTITUTE(E6,"/","|",     LEN(E6)-LEN(SUBSTITUTE(E6,"/",""))))))-4)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="V9" t="s">
@@ -934,7 +934,7 @@
         <v>17</v>
       </c>
       <c r="AO14" t="str">
-        <f t="shared" ref="AO14:AO21" si="0">CONCATENATE("git checkout ",AN4)</f>
+        <f t="shared" ref="AO14:AO21" si="1">CONCATENATE("git checkout ",AN4)</f>
         <v>git checkout 2009-06-18</v>
       </c>
       <c r="AP14" t="s">
@@ -956,18 +956,18 @@
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="str">
         <f>CONCATENATE("cd ",B4)</f>
-        <v>cd E:\18-09-19 Document structure\business\Study\Master\Space\p2\git\hiveminds\misgeo</v>
+        <v>cd E:\18-09-19 Document structure\business\Study\Master\Space\p2\git\hiveminds\ethics</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f t="shared" ref="C15:E15" si="1">CONCATENATE("cd ",C4)</f>
+        <f t="shared" ref="C15:E15" si="2">CONCATENATE("cd ",C4)</f>
         <v xml:space="preserve">cd </v>
       </c>
       <c r="D15" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">cd </v>
       </c>
       <c r="E15" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">cd </v>
       </c>
       <c r="V15" t="s">
@@ -977,7 +977,7 @@
         <v>23</v>
       </c>
       <c r="AO15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>git checkout 2010-06-28</v>
       </c>
       <c r="AP15" t="s">
@@ -1002,15 +1002,15 @@
         <v>git clone https://github.com/a-t-0/CoursePlanningTemplate.git</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f t="shared" ref="C16:E16" si="2">CONCATENATE("git clone ",C5)</f>
+        <f t="shared" ref="C16:E16" si="3">CONCATENATE("git clone ",C5)</f>
         <v xml:space="preserve">git clone </v>
       </c>
       <c r="D16" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">git clone </v>
       </c>
       <c r="E16" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">git clone </v>
       </c>
       <c r="V16" t="str">
@@ -1022,7 +1022,7 @@
         <v>git commit -m"Included instructions to install MikTex or use Overleaf"</v>
       </c>
       <c r="AO16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>git checkout 2014-10-28</v>
       </c>
       <c r="AP16" t="s">
@@ -1047,15 +1047,15 @@
         <v>cd CoursePlanningTemplate</v>
       </c>
       <c r="C17" s="4" t="e">
-        <f t="shared" ref="C17:E17" si="3">CONCATENATE("cd ",C8)</f>
+        <f t="shared" ref="C17:E17" si="4">CONCATENATE("cd ",C8)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D17" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="E17" s="4" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="V17" t="s">
@@ -1065,7 +1065,7 @@
         <v>29</v>
       </c>
       <c r="AO17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>git checkout 2015-10-27</v>
       </c>
       <c r="AP17" t="s">
@@ -1087,22 +1087,22 @@
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="str">
         <f>CONCATENATE("git remote set-url origin ",B6)</f>
-        <v>git remote set-url origin https://github.com/HiveMinds-EU/AE4878-Mission-Geometry-and-Orbit-Design.git</v>
+        <v>git remote set-url origin https://github.com/HiveMinds-EU/WM0324LR-Ethics-and-Engineering-for-Aerospace-Engineering.git</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f t="shared" ref="C18:E18" si="4">CONCATENATE("git remote set-url origin ",C6)</f>
+        <f t="shared" ref="C18:E18" si="5">CONCATENATE("git remote set-url origin ",C6)</f>
         <v xml:space="preserve">git remote set-url origin </v>
       </c>
       <c r="D18" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">git remote set-url origin </v>
       </c>
       <c r="E18" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">git remote set-url origin </v>
       </c>
       <c r="AO18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>git checkout 2016-10-31</v>
       </c>
       <c r="AP18" t="s">
@@ -1141,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="AO19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>git checkout 2017-10-30</v>
       </c>
       <c r="AP19" t="s">
@@ -1163,18 +1163,18 @@
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="str">
         <f>CONCATENATE("git remote add ",B7," ",B5)</f>
-        <v>git remote add pub_temp_misgeo https://github.com/a-t-0/CoursePlanningTemplate.git</v>
+        <v>git remote add pub_temp_eth https://github.com/a-t-0/CoursePlanningTemplate.git</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f t="shared" ref="C20:E20" si="5">CONCATENATE("git remote add ",C7," ",C5)</f>
+        <f t="shared" ref="C20:E20" si="6">CONCATENATE("git remote add ",C7," ",C5)</f>
         <v xml:space="preserve">git remote add  </v>
       </c>
       <c r="D20" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">git remote add  </v>
       </c>
       <c r="E20" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">git remote add  </v>
       </c>
       <c r="V20" t="s">
@@ -1184,7 +1184,7 @@
         <v>47</v>
       </c>
       <c r="AO20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>git checkout SampleExam</v>
       </c>
       <c r="AP20" t="s">
@@ -1206,18 +1206,18 @@
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="str">
         <f>CONCATENATE("git fetch ",B7)</f>
-        <v>git fetch pub_temp_misgeo</v>
+        <v>git fetch pub_temp_eth</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f t="shared" ref="C21:E21" si="6">CONCATENATE("git fetch ",C7)</f>
+        <f t="shared" ref="C21:E21" si="7">CONCATENATE("git fetch ",C7)</f>
         <v xml:space="preserve">git fetch </v>
       </c>
       <c r="D21" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">git fetch </v>
       </c>
       <c r="E21" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">git fetch </v>
       </c>
       <c r="V21" t="s">
@@ -1227,7 +1227,7 @@
         <v>14</v>
       </c>
       <c r="AO21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>git checkout Technical Latex Examples</v>
       </c>
       <c r="AP21" t="s">
@@ -1249,18 +1249,18 @@
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="str">
         <f>CONCATENATE("git merge ",B7,"/master")</f>
-        <v>git merge pub_temp_misgeo/master</v>
+        <v>git merge pub_temp_eth/master</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f t="shared" ref="C22:E22" si="7">CONCATENATE("git merge ",C7,"/master")</f>
+        <f t="shared" ref="C22:E22" si="8">CONCATENATE("git merge ",C7,"/master")</f>
         <v>git merge /master</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>git merge /master</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>git merge /master</v>
       </c>
       <c r="V22" t="s">
@@ -1424,18 +1424,18 @@
       </c>
       <c r="B27" s="4" t="str">
         <f>CONCATENATE("cd ",B4,"/",B8)</f>
-        <v>cd E:\18-09-19 Document structure\business\Study\Master\Space\p2\git\hiveminds\misgeo/CoursePlanningTemplate</v>
+        <v>cd E:\18-09-19 Document structure\business\Study\Master\Space\p2\git\hiveminds\ethics/CoursePlanningTemplate</v>
       </c>
       <c r="C27" s="4" t="e">
-        <f t="shared" ref="C27:E27" si="8">CONCATENATE("cd ",C4,"/",C8)</f>
+        <f t="shared" ref="C27:E27" si="9">CONCATENATE("cd ",C4,"/",C8)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D27" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="E27" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="V27" t="s">
@@ -1478,18 +1478,18 @@
     <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="str">
         <f>CONCATENATE("git fetch ",B7)</f>
-        <v>git fetch pub_temp_misgeo</v>
+        <v>git fetch pub_temp_eth</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f t="shared" ref="C28:E28" si="9">CONCATENATE("git fetch ",C7)</f>
+        <f t="shared" ref="C28:E28" si="10">CONCATENATE("git fetch ",C7)</f>
         <v xml:space="preserve">git fetch </v>
       </c>
       <c r="D28" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">git fetch </v>
       </c>
       <c r="E28" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">git fetch </v>
       </c>
       <c r="V28" t="s">
@@ -1502,18 +1502,18 @@
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="str">
         <f>CONCATENATE("git merge ",B7,"/master")</f>
-        <v>git merge pub_temp_misgeo/master</v>
+        <v>git merge pub_temp_eth/master</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f t="shared" ref="C29:E29" si="10">CONCATENATE("git merge ",C7,"/master")</f>
+        <f t="shared" ref="C29:E29" si="11">CONCATENATE("git merge ",C7,"/master")</f>
         <v>git merge /master</v>
       </c>
       <c r="D29" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>git merge /master</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>git merge /master</v>
       </c>
       <c r="V29" t="s">
@@ -1738,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F05594-EFCB-4330-8C27-312A8F03010E}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
